--- a/交易心得.xlsx
+++ b/交易心得.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="能力展示" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="354">
   <si>
     <t>交易策略举例说明    红色（15均线），黄色（50均线），蓝色（200均线）</t>
   </si>
@@ -771,9 +771,6 @@
     <t xml:space="preserve">    对图形进行评估，决定仓位</t>
   </si>
   <si>
-    <t>4，跟踪， 加仓</t>
-  </si>
-  <si>
     <t xml:space="preserve">   跟随趋势，轻预测，重应对</t>
   </si>
   <si>
@@ -937,13 +934,179 @@
   </si>
   <si>
     <t xml:space="preserve">      一个品种一个星期就1-2次机会，其他时间都不是大幅盈利的时机</t>
+  </si>
+  <si>
+    <t>认知  ： 震荡</t>
+  </si>
+  <si>
+    <t>金融市场就是这样，一直都在震荡，甚至是剧烈波动，</t>
+  </si>
+  <si>
+    <t>要不然怎么让绝大部分人亏钱，亏更多的钱，来输血市场？</t>
+  </si>
+  <si>
+    <t>认知  ： 天之道  与   人之道</t>
+  </si>
+  <si>
+    <t>认知 ：  规律如来，不可逆而</t>
+  </si>
+  <si>
+    <t>实事求是  如实观照  规律如来</t>
+  </si>
+  <si>
+    <t>神就是道</t>
+  </si>
+  <si>
+    <t>道就是规律</t>
+  </si>
+  <si>
+    <t>规律如来</t>
+  </si>
+  <si>
+    <t>容不得你思议</t>
+  </si>
+  <si>
+    <t>按规律办事的人就是神</t>
+  </si>
+  <si>
+    <t>认知 ： 格局</t>
+  </si>
+  <si>
+    <t>个人的格局改变不了历史</t>
+  </si>
+  <si>
+    <t>认知 ： 有路不走</t>
+  </si>
+  <si>
+    <t>放下</t>
+  </si>
+  <si>
+    <t>贪</t>
+  </si>
+  <si>
+    <t>觉悟</t>
+  </si>
+  <si>
+    <t>聪明 &lt;&gt; 智慧</t>
+  </si>
+  <si>
+    <t>活的明白</t>
+  </si>
+  <si>
+    <t>记 ： 2017年2月11日</t>
+  </si>
+  <si>
+    <t>4，跟踪， 加仓，  控制情感</t>
+  </si>
+  <si>
+    <t>进场策略  321， 211， 201， 100</t>
+  </si>
+  <si>
+    <t>反者道之动，弱者道之用，所谓物极必反。</t>
+  </si>
+  <si>
+    <t>就是别人恐惧时你贪婪，别人贪婪时你恐惧。天道人道，皆为规律应用之道</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>天之道，损有余而补不足。人之道，则不然，损不足以奉有余。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>孰能有余以奉天下，唯有道者。是以圣人为而不恃，功成而不处，其不欲见贤。</t>
+    </r>
+  </si>
+  <si>
+    <t>成长分三个级别， 学到 -&gt; 悟道  -&gt;  做到   为什么做到那么难，到底难在哪里？</t>
+  </si>
+  <si>
+    <t>老子说：反者道之动，弱者道之用，所谓物极必反。就是别人恐惧时你贪婪，别人贪婪时你恐惧。天道人道，皆为规律应用之道</t>
+  </si>
+  <si>
+    <t>金融市场就是这样，一直都在震荡，甚至是剧烈波动，要不然怎么让绝大部分人亏钱，亏更多的钱，来输血市场。    人之道，损不足以奉有余。   一直再思考怎么用这个道?  @王子腾  请老师给点破一下</t>
+  </si>
+  <si>
+    <t>问</t>
+  </si>
+  <si>
+    <t>答</t>
+  </si>
+  <si>
+    <t>成长分三个级别， 学到 -&gt; 悟道  -&gt;  做到   为什么做到那么难，到底难在哪里？请老师再指点一下</t>
+  </si>
+  <si>
+    <t>等初步做到以后，还存在一个绵密保任的问题</t>
+  </si>
+  <si>
+    <t>天之道，损有余而补不足。人之道，损不足以奉有余。天道人道，皆为规律应用之道</t>
+  </si>
+  <si>
+    <t>难首先在于定义，大多事情我们定义它难的时候，他就已经不可能容易了。怎么理解呢？</t>
+  </si>
+  <si>
+    <t>就是，我们常说的，在战略上一定要藐视困难，藐视对手，只是在战术上重视它</t>
+  </si>
+  <si>
+    <t>其次是认知的层次问题。当我们觉得难的时候——做不到，其实是认知不够。</t>
+  </si>
+  <si>
+    <t>很多朋友可能不理解，不接受，觉得我知道了，我懂得了，可我就是做不到，</t>
+  </si>
+  <si>
+    <t>那些触目惊心的场景你真的经历过吗？如果没有，就不算知道！所以王阳明才说，非行不足谓之知</t>
+  </si>
+  <si>
+    <t>其实呢，这是认知还不够深刻。认知分为浅层认知和深层次认知。</t>
+  </si>
+  <si>
+    <t>如果理解和认知浮于表面，你必然很难去做到，因为做到是需要决心，毅力的，就比如说戒烟这件事情，你以为知道吸烟的坏处，但是你真的深切的知道吗？你去过医院看到那些吸烟导致肺癌的病人吗？。</t>
+  </si>
+  <si>
+    <t>最后可能是改变的递进问题，就像我上课时讲的，学会用小变量去改变自己的交易，改变自己的人生。</t>
+  </si>
+  <si>
+    <t>我们在跑步的时候有这种经历，一段长长距离，如果我们善于把它切割成一段一段的，比如说每500米啊，我们做一个标志，这样呢，一段长的距离就很容易跑下来。也就是目标的分割，</t>
+  </si>
+  <si>
+    <t>这其实是成功学的范畴吧，我相信大家不陌生，只是在交易上面没有把它做到应用好。</t>
+  </si>
+  <si>
+    <t>总结一下就是首先，在认知上。不能定义这件事情非常困难，不能说很难做到。其次就是深刻认知，不能浮于表面的浅层的了解。</t>
+  </si>
+  <si>
+    <t>最后就是善于一层一层的解决问题。不要寄希望于一下全部解决，全部做到。如果这三点做到了，我相信，就相对没有那么困难了。</t>
+  </si>
+  <si>
+    <t>绵就是绵绵不绝，中间不能停；</t>
+  </si>
+  <si>
+    <t>任就是已经成为习性，任意自然。就是孔子所说的：随心所欲不逾矩</t>
+  </si>
+  <si>
+    <t>密就是密集，中间需要采取大量的行动；</t>
+  </si>
+  <si>
+    <t>保就是在意识思想上密切注意保护已得的成绩，千万不能因反复而重蹈覆辙；</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1003,6 +1166,20 @@
       <name val="新宋体"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1024,7 +1201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1034,6 +1211,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2973,10 +3151,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G136"/>
+  <dimension ref="A2:G217"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="L140" sqref="L140"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="K219" sqref="K219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3191,47 +3369,47 @@
     </row>
     <row r="58" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3461,105 +3639,344 @@
     </row>
     <row r="111" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B113" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B119" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C120" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C121" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B126" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B127" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B128" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="6" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="6" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="6" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="6" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="6" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="6" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="6" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="6" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="6" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="6" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="6" t="s">
+    <row r="139" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
         <v>305</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B154" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B161" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B166" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C167" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B169" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B174" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B178" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B179" s="7"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B180" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B181" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D184" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B186" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B197" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B199" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B200" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B201" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B202" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B203" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B205" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B206" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B207" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="6" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L125"/>
+  <dimension ref="A2:L127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3584,7 +4001,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L8" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3594,12 +4011,12 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L11" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L12" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3612,7 +4029,7 @@
         <v>88</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3757,7 +4174,7 @@
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C69" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -3860,64 +4277,59 @@
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C95" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="7" t="s">
-        <v>250</v>
+      <c r="C96" s="6" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C97" s="6" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C98" s="6" t="s">
-        <v>252</v>
+      <c r="B98" s="7" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C99" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C100" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C101" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="7" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C102" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C103" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C104" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C105" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C106" s="6" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="7" t="s">
-        <v>259</v>
+      <c r="C107" s="6" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
@@ -3926,62 +4338,72 @@
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D109" s="6" t="s">
+      <c r="B109" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C110" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D112" s="6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D110" s="6" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="7" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C111" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C114" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C115" s="6" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C116" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A119" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B122" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B123" s="6" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B125" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B126" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B127" s="6" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4082,7 +4504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -4187,8 +4609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4345,7 +4767,7 @@
         <v>23</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4354,7 +4776,7 @@
         <v>31</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4362,12 +4784,12 @@
         <v>32</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P24" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4375,7 +4797,7 @@
         <v>24</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4386,7 +4808,7 @@
         <v>28</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4400,12 +4822,12 @@
         <v>26</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P30" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4413,7 +4835,7 @@
         <v>29</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">

--- a/交易心得.xlsx
+++ b/交易心得.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="能力展示" sheetId="6" r:id="rId1"/>
@@ -3153,7 +3153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+    <sheetView topLeftCell="A195" workbookViewId="0">
       <selection activeCell="K219" sqref="K219"/>
     </sheetView>
   </sheetViews>
@@ -3975,8 +3975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L127"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="I113" sqref="I113"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="Q83" sqref="Q83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/交易心得.xlsx
+++ b/交易心得.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="能力展示" sheetId="6" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="交易策略图例" sheetId="1" r:id="rId4"/>
     <sheet name="止盈策略" sheetId="5" r:id="rId5"/>
     <sheet name="团队化交易" sheetId="3" r:id="rId6"/>
+    <sheet name="悟道 真经" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="371">
   <si>
     <t>交易策略举例说明    红色（15均线），黄色（50均线），蓝色（200均线）</t>
   </si>
@@ -1100,6 +1101,57 @@
   </si>
   <si>
     <t>保就是在意识思想上密切注意保护已得的成绩，千万不能因反复而重蹈覆辙；</t>
+  </si>
+  <si>
+    <t>顺势时 ：  金叉 死叉 就进场</t>
+  </si>
+  <si>
+    <t>逆势时 ：  MACD 正负切换</t>
+  </si>
+  <si>
+    <t>苦苦的在1小时和4小时挣扎，不如看天图交易，</t>
+  </si>
+  <si>
+    <t>天图交易需要人生修为</t>
+  </si>
+  <si>
+    <t>悟道休言天命</t>
+  </si>
+  <si>
+    <t>修行勿取真经</t>
+  </si>
+  <si>
+    <t>一悲一喜一枯荣</t>
+  </si>
+  <si>
+    <t>那个前生注定</t>
+  </si>
+  <si>
+    <t>袈裟本无清静</t>
+  </si>
+  <si>
+    <t>红尘不染性空</t>
+  </si>
+  <si>
+    <t>悠悠古刹千年钟</t>
+  </si>
+  <si>
+    <t>都是痴人说梦</t>
+  </si>
+  <si>
+    <t>悟道是一种违背世俗的思维，简单地说是逆天改命，修行是一种用世俗的规矩来约束自己</t>
+  </si>
+  <si>
+    <t>既谈约束，就不要说是取真经，如果约束可以取真经，那世间的真经岂不是随处可见</t>
+  </si>
+  <si>
+    <t>1、掌握大局</t>
+  </si>
+  <si>
+    <t>2、分清 趋势还是震荡</t>
+  </si>
+  <si>
+    <t>3、观察细节</t>
   </si>
 </sst>
 </file>
@@ -3975,7 +4027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="Q83" sqref="Q83"/>
     </sheetView>
   </sheetViews>
@@ -5274,4 +5326,104 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C7:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/交易心得.xlsx
+++ b/交易心得.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="能力展示" sheetId="6" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="止盈策略" sheetId="5" r:id="rId5"/>
     <sheet name="团队化交易" sheetId="3" r:id="rId6"/>
     <sheet name="悟道 真经" sheetId="7" r:id="rId7"/>
+    <sheet name="交易策略图解" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="390">
   <si>
     <t>交易策略举例说明    红色（15均线），黄色（50均线），蓝色（200均线）</t>
   </si>
@@ -1153,12 +1154,82 @@
   <si>
     <t>3、观察细节</t>
   </si>
+  <si>
+    <t>顺势  ：  同200日均线同向</t>
+  </si>
+  <si>
+    <t>1、15日均线和50日均线交叉</t>
+  </si>
+  <si>
+    <t>2、macd趋势明显</t>
+  </si>
+  <si>
+    <t>交易规则1、 顺势 123</t>
+  </si>
+  <si>
+    <t>3、Laguerre 在 0.5的一侧（超买或者超卖）</t>
+  </si>
+  <si>
+    <t>出场 ：</t>
+  </si>
+  <si>
+    <t>1、15日和50日均线出现金叉或者死叉</t>
+  </si>
+  <si>
+    <t>2、macd出现金叉或者死叉</t>
+  </si>
+  <si>
+    <t>顺势  ：  同200日均线方向相反</t>
+  </si>
+  <si>
+    <t>1、穿过15日均线</t>
+  </si>
+  <si>
+    <t>1、站稳15日均线一侧</t>
+  </si>
+  <si>
+    <t>趋势交易法</t>
+  </si>
+  <si>
+    <t>震荡交易法</t>
+  </si>
+  <si>
+    <t>只做趋势，震荡时找别的货币对，或者等待</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">交易规则2、 逆势 123   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>盈利有限 需谨慎</t>
+    </r>
+  </si>
+  <si>
+    <t>MACD  金叉死叉</t>
+  </si>
+  <si>
+    <t>日线 均线带变窄</t>
+  </si>
+  <si>
+    <t>震荡时有两个特点</t>
+  </si>
+  <si>
+    <t>2、macd柱体 方向逆转</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1232,6 +1303,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1253,7 +1340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1264,6 +1351,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2867,6 +2956,1221 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>160028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>122934</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38652</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1623068"/>
+          <a:ext cx="11705334" cy="6279424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>129548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>122934</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>8172</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9258308"/>
+          <a:ext cx="11705334" cy="6279424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形标注 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="12473940"/>
+          <a:ext cx="830580" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 52106"/>
+            <a:gd name="adj2" fmla="val 281732"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>规则</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形标注 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2956560" y="11894820"/>
+          <a:ext cx="830580" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 52106"/>
+            <a:gd name="adj2" fmla="val -185576"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>规则</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="圆角矩形标注 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1082040" y="4884420"/>
+          <a:ext cx="830580" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 52106"/>
+            <a:gd name="adj2" fmla="val -185576"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>规则</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="圆角矩形标注 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="5768340"/>
+          <a:ext cx="830580" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 52106"/>
+            <a:gd name="adj2" fmla="val -185576"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>规则</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="圆角矩形标注 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1059180" y="6431280"/>
+          <a:ext cx="830580" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 41097"/>
+            <a:gd name="adj2" fmla="val 175963"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>规则</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="圆角矩形标注 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2987040" y="6690360"/>
+          <a:ext cx="830580" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 56693"/>
+            <a:gd name="adj2" fmla="val 235578"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>规则</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="圆角矩形标注 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4450080" y="5722620"/>
+          <a:ext cx="830580" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 52106"/>
+            <a:gd name="adj2" fmla="val -185576"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>规则</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="圆角矩形标注 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4442460" y="6385560"/>
+          <a:ext cx="830580" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 61280"/>
+            <a:gd name="adj2" fmla="val 220193"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>规则</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="圆角矩形标注 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4503420" y="11772900"/>
+          <a:ext cx="830580" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 52106"/>
+            <a:gd name="adj2" fmla="val -185576"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>规则</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="圆角矩形标注 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="678180" y="10934700"/>
+          <a:ext cx="830580" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 52106"/>
+            <a:gd name="adj2" fmla="val -185576"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>规则</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="圆角矩形标注 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4549140" y="12778740"/>
+          <a:ext cx="830580" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 57611"/>
+            <a:gd name="adj2" fmla="val 220193"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>规则</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="圆角矩形标注 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2811780" y="12778740"/>
+          <a:ext cx="830580" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 4400"/>
+            <a:gd name="adj2" fmla="val 235578"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>规则</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="圆角矩形标注 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7101840" y="13281660"/>
+          <a:ext cx="830580" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36884"/>
+            <a:gd name="adj2" fmla="val 129809"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>规则</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="圆角矩形标注 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7658100" y="12733020"/>
+          <a:ext cx="830580" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -78169"/>
+            <a:gd name="adj2" fmla="val -99037"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>规则</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -5332,7 +6636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -5426,4 +6730,232 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="88" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A88" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="B90" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="B92" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C92" s="10"/>
+    </row>
+    <row r="93" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="B93" s="10"/>
+      <c r="C93" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="B94" s="10"/>
+      <c r="C94" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C97" s="4"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/交易心得.xlsx
+++ b/交易心得.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="能力展示" sheetId="6" r:id="rId1"/>
@@ -12,16 +12,15 @@
     <sheet name="交易策略" sheetId="2" r:id="rId3"/>
     <sheet name="交易策略图例" sheetId="1" r:id="rId4"/>
     <sheet name="止盈策略" sheetId="5" r:id="rId5"/>
-    <sheet name="团队化交易" sheetId="3" r:id="rId6"/>
-    <sheet name="悟道 真经" sheetId="7" r:id="rId7"/>
-    <sheet name="交易策略图解" sheetId="8" r:id="rId8"/>
+    <sheet name="悟道 真经" sheetId="7" r:id="rId6"/>
+    <sheet name="交易策略图解" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="280">
   <si>
     <t>交易策略举例说明    红色（15均线），黄色（50均线），蓝色（200均线）</t>
   </si>
@@ -47,243 +46,15 @@
     <t>5  人性的不稳定性，人的不确定性</t>
   </si>
   <si>
-    <t>为什么团队化</t>
-  </si>
-  <si>
-    <t>战胜人性的弱点，个人精力时间的不足</t>
-  </si>
-  <si>
-    <t>职责单一，时间共用，相互监督，自我督促</t>
-  </si>
-  <si>
-    <t>前提 ：</t>
-  </si>
-  <si>
-    <t>认同，且用同一种交易模型去思考问题</t>
-  </si>
-  <si>
-    <t>精力</t>
-  </si>
-  <si>
-    <t>1  时间共享</t>
-  </si>
-  <si>
-    <t>2  能力分享</t>
-  </si>
-  <si>
-    <t>技术</t>
-  </si>
-  <si>
-    <t>1 技术共享</t>
-  </si>
-  <si>
-    <t>心态</t>
-  </si>
-  <si>
-    <t>1 相互督促</t>
-  </si>
-  <si>
-    <t>2 独立交易</t>
-  </si>
-  <si>
-    <t>3 增加信心</t>
-  </si>
-  <si>
     <t>财务自由，不用为了钱去付出固定大量时间</t>
   </si>
   <si>
-    <t>团队工作机制 ：</t>
-  </si>
-  <si>
-    <t>监视 - 初级群</t>
-  </si>
-  <si>
-    <t>监视 - 中级群</t>
-  </si>
-  <si>
-    <t>职责 ： 监视，报告，并评估风险，（如果考核成功，进入高级）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     </t>
-  </si>
-  <si>
-    <t>职责 ： 监视，报告（监视记录做的好，并考核成功，进入中级）</t>
-  </si>
-  <si>
-    <t>监视 - 高级群</t>
-  </si>
-  <si>
-    <t>职责 ：监视，报告，并评估风险，直接给出是否交易信号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 监视     </t>
-  </si>
-  <si>
-    <t>职责 ： 每天按照任务监视，出现关键图形并报告，不能发其他信息</t>
-  </si>
-  <si>
-    <t>2  决策者  （决策者1 发布观点，决策者2发布观点。。。。）</t>
-  </si>
-  <si>
-    <t>职责 ： 决策者根据监视群的报告，做判断，是否交易，并发出交易信号-  进场或者出场信号）</t>
-  </si>
-  <si>
-    <t>3  交易信号</t>
-  </si>
-  <si>
-    <t>交易信号发布群 （只有决策者可以发布消息）</t>
-  </si>
-  <si>
-    <t>人员种类 1 ： （团队的所有人，不需要付费）</t>
-  </si>
-  <si>
-    <t>人员种类 2 ： （付费，为了获得交易信号）</t>
-  </si>
-  <si>
-    <t>4 团队内部交流群</t>
-  </si>
-  <si>
-    <t>言论自由</t>
-  </si>
-  <si>
-    <t>收费客户的客服群</t>
-  </si>
-  <si>
-    <t>5 对外客服群   将来的事情，现不过多考虑</t>
-  </si>
-  <si>
-    <t>对外收费标准：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">关于团队模式： </t>
-  </si>
-  <si>
-    <t>团队之内的人，共赢的方式</t>
-  </si>
-  <si>
-    <t>初中级者 获得的是能力 （高级者的指导）</t>
-  </si>
-  <si>
-    <t>高级者   获得的是时间 （个人精力是有限的）</t>
-  </si>
-  <si>
-    <t>参考信号，个人独立判断并交易，不受其他人影响</t>
-  </si>
-  <si>
-    <t>团队的收益：</t>
-  </si>
-  <si>
-    <t>交易信号发布群里面，团队之外的人付出的报酬</t>
-  </si>
-  <si>
-    <t>这个不是重要的，重要的是个人能力的提高，如果个人（团队）能稳定盈利，需要的只是本金</t>
-  </si>
-  <si>
-    <t>团队成员的要求</t>
-  </si>
-  <si>
-    <t>1，理念相同， 交易策略相同</t>
-  </si>
-  <si>
-    <t>2，坚持  （理念的对错，只有坚持住才能知道，就怕开始遇到点挫折就放弃）</t>
-  </si>
-  <si>
-    <t>3，想提高个人能力</t>
-  </si>
-  <si>
-    <t>关键问题：</t>
-  </si>
-  <si>
-    <t>怎么保证团队发出的交易信号的正确性</t>
-  </si>
-  <si>
-    <t>团队的优点：</t>
-  </si>
-  <si>
-    <t>1， 理解稳定盈利的策略是什么样的</t>
-  </si>
-  <si>
-    <t>2， 团队的信号，是经过双重验证的（多余2人的同时验证）</t>
-  </si>
-  <si>
-    <t>3， 团队的信号，不会错过大行情的交易机会（多人的同时监控）</t>
-  </si>
-  <si>
-    <t>4， 规避个人的随机交易 （团队没有发出交易信号）</t>
-  </si>
-  <si>
-    <t>5， 规避个人的大幅亏损 （团队的交易信号已经止损或止盈）</t>
-  </si>
-  <si>
-    <t>6， 规避个人交易的混乱 - 短线变长线（团队的交易策略明显）</t>
-  </si>
-  <si>
-    <t>7， 规避个人的反复双向操作 (依照团队信号操作)</t>
-  </si>
-  <si>
-    <t>8， 规避个人的侥幸，妄念的心理 (依照团队信号操作)</t>
-  </si>
-  <si>
-    <t>9， 规避个人的情感不稳定，前后不一致</t>
-  </si>
-  <si>
-    <t>10，规避个人的疯狂（团队内有冷静的人就不会引发团队疯狂）</t>
-  </si>
-  <si>
-    <t>11，规避个人的赌性心理</t>
-  </si>
-  <si>
-    <t>12，规避个人重仓的心理，仓控明确（团队按照一个标准操作，风险管控好，不会出现重仓）</t>
-  </si>
-  <si>
-    <t>13，规避个人的不理性错误  （实事求是， 见路不走）</t>
-  </si>
-  <si>
-    <t>98， 机械式交易</t>
-  </si>
-  <si>
-    <t>99， 相互促进，共同成长</t>
-  </si>
-  <si>
-    <t>团队的缺点：</t>
-  </si>
-  <si>
-    <t>1， 运营相对复杂，需要理念和认同交易策略的多人分工行动</t>
-  </si>
-  <si>
-    <t>2， 交易策略的完善</t>
-  </si>
-  <si>
-    <t>3， 个人的监控错误或者遗漏（解决：多人同时监控同一品种）</t>
-  </si>
-  <si>
-    <t>4， 团队内个人滥竽充数的情况</t>
-  </si>
-  <si>
-    <t>5， 时间的限制 （成员都有本职工作）</t>
-  </si>
-  <si>
-    <t>6， 人数多的话，成员间的信任问题 （解决：三个级别的监控组）</t>
-  </si>
-  <si>
     <t>监视顺序  简单 -&gt;  复杂</t>
   </si>
   <si>
     <t>欧美，欧日，黄金，原油，日经</t>
   </si>
   <si>
-    <t>淘汰机制：</t>
-  </si>
-  <si>
-    <t>多次出错（监视不到位，或者规定时间没有监视， 17点-24点 欧美场）</t>
-  </si>
-  <si>
-    <t>核心理念 ：</t>
-  </si>
-  <si>
-    <t>个人独立交易， 交易信号共享</t>
-  </si>
-  <si>
     <t>稳定盈利的交易策略</t>
   </si>
   <si>
@@ -539,45 +310,6 @@
     <t>按照H4 的图像操作最简单</t>
   </si>
   <si>
-    <t>团队成员的前提：</t>
-  </si>
-  <si>
-    <t>大家的基本认知相同，且认同同一个交易策略，并愿意付出行动的</t>
-  </si>
-  <si>
-    <t>这个很难，最后可能演变成一个boss雇佣几个他认可的人，替他完成相应的角色，这就是国内很多团队的模式</t>
-  </si>
-  <si>
-    <t>人性，个人需求，认知，都接近吻合的人很少，</t>
-  </si>
-  <si>
-    <t>只能目标一致，所以大家是合作的关系</t>
-  </si>
-  <si>
-    <t>团队不需要太多的管理，但有一定的规则，打破规则，合作终止</t>
-  </si>
-  <si>
-    <t>新成员半年的试用，如果能坚持半年，自动成为团队的运行机制的一部分</t>
-  </si>
-  <si>
-    <t>团队的目标：</t>
-  </si>
-  <si>
-    <t>简单的事情重复做， 就用一个交易策略，重复执行</t>
-  </si>
-  <si>
-    <t>机械式交易</t>
-  </si>
-  <si>
-    <t>就是把复盘时交易的确定性，机械化地落实在实盘交易</t>
-  </si>
-  <si>
-    <t>不同的人监控不同的货币对，出现优质股前可以发现</t>
-  </si>
-  <si>
-    <t>发现优质股</t>
-  </si>
-  <si>
     <t>十分之七的时间是窄幅震荡，震荡幅度小，无法盈利</t>
   </si>
   <si>
@@ -605,39 +337,6 @@
     <t>30%的天数是可以交易的</t>
   </si>
   <si>
-    <t xml:space="preserve">交易信号 内容包括  </t>
-  </si>
-  <si>
-    <t>是否顺势</t>
-  </si>
-  <si>
-    <t>现在是干什么，处于什么状态，将来的可能状态</t>
-  </si>
-  <si>
-    <t>入场点</t>
-  </si>
-  <si>
-    <t>赢得概率</t>
-  </si>
-  <si>
-    <t>风险评估</t>
-  </si>
-  <si>
-    <t>目标点</t>
-  </si>
-  <si>
-    <t>个人成长：</t>
-  </si>
-  <si>
-    <t>个人性格和交易策略决定的  团队成员</t>
-  </si>
-  <si>
-    <t>个人的成长还需要个人的磨练</t>
-  </si>
-  <si>
-    <t>成长分三个等级</t>
-  </si>
-  <si>
     <t>学到 - 别人说了能听懂，且认同 (听课，看书，学习)</t>
   </si>
   <si>
@@ -647,9 +346,6 @@
     <t>做到 - 知行合一  （实践领悟到的）</t>
   </si>
   <si>
-    <t>通过团队的运行机制，有心者都能得到提高，且还有收益</t>
-  </si>
-  <si>
     <t>（闭环  学到-&gt;想到-&gt;做到-&gt;分析总结-&gt;再学到）</t>
   </si>
   <si>
@@ -873,33 +569,6 @@
   </si>
   <si>
     <t>交替系统</t>
-  </si>
-  <si>
-    <t>团队化运行机制</t>
-  </si>
-  <si>
-    <t>1，交易观察者，根据入出场规则，一个小时观察一次，出现关键图形就报告</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   （大于等于2个人，观察同一个品种，以免错过大的行情）</t>
-  </si>
-  <si>
-    <t>2，交易决策者，根据观察者的报告，判断是否进场</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   如进场，发出进场信号，并实时跟踪走势，发出加仓信号，止盈止损价位，和出场信号</t>
-  </si>
-  <si>
-    <t>3，交易管理者，每周评估观察者和决策者行为，决定成员是否退出，降级或者任务升级</t>
-  </si>
-  <si>
-    <t>团队工具</t>
-  </si>
-  <si>
-    <t>关键图形账本，以备事后评估观察者</t>
-  </si>
-  <si>
-    <t>信号账本，决策者的每个信号都记录下来，以备事后分析</t>
   </si>
   <si>
     <t>认知 ： 个人交易存在的问题：</t>
@@ -4468,7 +4137,7 @@
   <sheetData>
     <row r="7" spans="2:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -4478,7 +4147,7 @@
     </row>
     <row r="9" spans="2:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="8" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4487,17 +4156,17 @@
     <row r="11" spans="2:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="D12" s="5" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="D13" s="5" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4520,12 +4189,12 @@
   <sheetData>
     <row r="2" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4533,27 +4202,27 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4628,149 +4297,149 @@
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>188</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>185</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>186</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>187</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>191</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C47" s="6" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C48" s="6" t="s">
-        <v>192</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>280</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
-        <v>272</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
-        <v>273</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
-        <v>274</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>275</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>276</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>277</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>278</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
-        <v>279</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>210</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -4778,27 +4447,27 @@
     </row>
     <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>206</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>207</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>209</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="B83"/>
       <c r="C83"/>
@@ -4813,7 +4482,7 @@
     <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A85"/>
       <c r="B85" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
       <c r="C85"/>
       <c r="D85"/>
@@ -4827,7 +4496,7 @@
     <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="C87"/>
       <c r="D87"/>
@@ -4835,7 +4504,7 @@
     <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A88"/>
       <c r="B88" t="s">
-        <v>213</v>
+        <v>112</v>
       </c>
       <c r="C88"/>
       <c r="D88"/>
@@ -4843,7 +4512,7 @@
     <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="C89"/>
       <c r="D89"/>
@@ -4851,7 +4520,7 @@
     <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A90"/>
       <c r="B90" t="s">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="C90"/>
       <c r="D90"/>
@@ -4865,7 +4534,7 @@
     <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A92"/>
       <c r="B92" t="s">
-        <v>216</v>
+        <v>115</v>
       </c>
       <c r="C92"/>
       <c r="D92"/>
@@ -4885,7 +4554,7 @@
     <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A95"/>
       <c r="B95" t="s">
-        <v>217</v>
+        <v>116</v>
       </c>
       <c r="C95"/>
       <c r="D95"/>
@@ -4899,7 +4568,7 @@
     <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A97"/>
       <c r="B97" t="s">
-        <v>218</v>
+        <v>117</v>
       </c>
       <c r="C97"/>
       <c r="D97"/>
@@ -4907,7 +4576,7 @@
     <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A98"/>
       <c r="B98" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="C98"/>
       <c r="D98"/>
@@ -4915,7 +4584,7 @@
     <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A99"/>
       <c r="B99" t="s">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c r="C99"/>
       <c r="D99"/>
@@ -4923,7 +4592,7 @@
     <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A100"/>
       <c r="B100" t="s">
-        <v>221</v>
+        <v>120</v>
       </c>
       <c r="C100"/>
       <c r="D100"/>
@@ -4937,7 +4606,7 @@
     <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A102"/>
       <c r="B102" t="s">
-        <v>222</v>
+        <v>121</v>
       </c>
       <c r="C102"/>
       <c r="D102"/>
@@ -4945,7 +4614,7 @@
     <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A103"/>
       <c r="B103" t="s">
-        <v>223</v>
+        <v>122</v>
       </c>
       <c r="C103"/>
       <c r="D103"/>
@@ -4953,14 +4622,14 @@
     <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A104"/>
       <c r="C104" t="s">
-        <v>224</v>
+        <v>123</v>
       </c>
       <c r="D104"/>
     </row>
     <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A105"/>
       <c r="B105" t="s">
-        <v>225</v>
+        <v>124</v>
       </c>
       <c r="C105"/>
       <c r="D105"/>
@@ -4968,14 +4637,14 @@
     <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A106"/>
       <c r="C106" t="s">
-        <v>226</v>
+        <v>125</v>
       </c>
       <c r="D106"/>
     </row>
     <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A107"/>
       <c r="B107" t="s">
-        <v>227</v>
+        <v>126</v>
       </c>
       <c r="C107"/>
       <c r="D107"/>
@@ -4983,7 +4652,7 @@
     <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A108"/>
       <c r="C108" t="s">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="D108"/>
     </row>
@@ -4995,195 +4664,195 @@
     </row>
     <row r="111" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>269</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B113" s="6" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>270</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B119" s="6" t="s">
-        <v>271</v>
+        <v>170</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C120" s="6" t="s">
-        <v>267</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C121" s="6" t="s">
-        <v>268</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>293</v>
+        <v>183</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B126" s="6" t="s">
-        <v>294</v>
+        <v>184</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B127" s="6" t="s">
-        <v>295</v>
+        <v>185</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B128" s="6" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B129" s="6" t="s">
-        <v>297</v>
+        <v>187</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B130" s="6" t="s">
-        <v>298</v>
+        <v>188</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B131" s="6" t="s">
-        <v>299</v>
+        <v>189</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B132" s="6" t="s">
-        <v>300</v>
+        <v>190</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B133" s="6" t="s">
-        <v>301</v>
+        <v>191</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B134" s="6" t="s">
-        <v>302</v>
+        <v>192</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B135" s="6" t="s">
-        <v>303</v>
+        <v>193</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B136" s="6" t="s">
-        <v>304</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>305</v>
+        <v>195</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
-        <v>306</v>
+        <v>196</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B142" s="7" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>309</v>
+        <v>199</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B149" s="6" t="s">
-        <v>310</v>
+        <v>200</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B151" s="6" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B152" s="6" t="s">
-        <v>312</v>
+        <v>202</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B153" s="6" t="s">
-        <v>313</v>
+        <v>203</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B154" s="6" t="s">
-        <v>314</v>
+        <v>204</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B155" s="6" t="s">
-        <v>315</v>
+        <v>205</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>316</v>
+        <v>206</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B161" s="6" t="s">
-        <v>317</v>
+        <v>207</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>318</v>
+        <v>208</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B166" s="6" t="s">
-        <v>319</v>
+        <v>209</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C167" s="6" t="s">
-        <v>320</v>
+        <v>210</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>321</v>
+        <v>211</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B169" s="6" t="s">
-        <v>322</v>
+        <v>212</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>323</v>
+        <v>213</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B174" s="6" t="s">
-        <v>324</v>
+        <v>214</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>308</v>
+        <v>198</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B178" s="9" t="s">
-        <v>329</v>
+        <v>219</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -5191,134 +4860,134 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B180" s="7" t="s">
-        <v>327</v>
+        <v>217</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B181" s="7" t="s">
-        <v>328</v>
+        <v>218</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D184" s="6" t="s">
-        <v>337</v>
+        <v>227</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B186" s="6" t="s">
-        <v>330</v>
+        <v>220</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>333</v>
+        <v>223</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>332</v>
+        <v>222</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>334</v>
+        <v>224</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>331</v>
+        <v>221</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>333</v>
+        <v>223</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>335</v>
+        <v>225</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>334</v>
+        <v>224</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>338</v>
+        <v>228</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B197" s="6" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B199" s="6" t="s">
-        <v>340</v>
+        <v>230</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B200" s="6" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B201" s="6" t="s">
-        <v>343</v>
+        <v>233</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B202" s="6" t="s">
-        <v>344</v>
+        <v>234</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B203" s="6" t="s">
-        <v>342</v>
+        <v>232</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B205" s="6" t="s">
-        <v>345</v>
+        <v>235</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B206" s="6" t="s">
-        <v>346</v>
+        <v>236</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B207" s="6" t="s">
-        <v>347</v>
+        <v>237</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" s="6" t="s">
-        <v>348</v>
+        <v>238</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" s="6" t="s">
-        <v>349</v>
+        <v>239</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" s="6" t="s">
-        <v>336</v>
+        <v>226</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" s="6" t="s">
-        <v>350</v>
+        <v>240</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" s="6" t="s">
-        <v>352</v>
+        <v>242</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" s="6" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" s="6" t="s">
-        <v>351</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -5342,425 +5011,425 @@
   <sheetData>
     <row r="2" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="6" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L8" s="6" t="s">
-        <v>281</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L9" s="6" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L11" s="6" t="s">
-        <v>282</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L12" s="6" t="s">
-        <v>283</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L13" s="6" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>281</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C18" s="6" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" s="6" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="6" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C25" s="6" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C28" s="6" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C31" s="6" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C32" s="6" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C36" s="6" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C40" s="6" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C43" s="6" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C48" s="6" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C49" s="6" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C50" s="6" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C51" s="6" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C66" s="6" t="s">
-        <v>230</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>231</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C69" s="6" t="s">
-        <v>265</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C71" s="6" t="s">
-        <v>232</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C72" s="6" t="s">
-        <v>233</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C73" s="6" t="s">
-        <v>234</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C74" s="6" t="s">
-        <v>235</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C75" s="6" t="s">
-        <v>236</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C76" s="6" t="s">
-        <v>237</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C77" s="6" t="s">
-        <v>236</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C78" s="6" t="s">
-        <v>238</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C79" s="6" t="s">
-        <v>239</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C81" s="6" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C82" s="6" t="s">
-        <v>241</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D83" s="6" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C85" s="6" t="s">
-        <v>243</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D86" s="6" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C87" s="6" t="s">
-        <v>236</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
-        <v>245</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C89" s="6" t="s">
-        <v>246</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>247</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C92" s="6" t="s">
-        <v>248</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C94" s="6" t="s">
-        <v>249</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C96" s="6" t="s">
-        <v>326</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C97" s="6" t="s">
-        <v>236</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
-        <v>325</v>
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C99" s="6" t="s">
-        <v>250</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C100" s="6" t="s">
-        <v>251</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C101" s="6" t="s">
-        <v>252</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
-        <v>253</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C104" s="6" t="s">
-        <v>254</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C105" s="6" t="s">
-        <v>255</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C106" s="6" t="s">
-        <v>256</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C107" s="6" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C108" s="6" t="s">
-        <v>236</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>258</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C110" s="6" t="s">
-        <v>236</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D111" s="6" t="s">
-        <v>259</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D112" s="6" t="s">
-        <v>260</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C113" s="6" t="s">
-        <v>236</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
-        <v>261</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C116" s="6" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C117" s="6" t="s">
-        <v>263</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C118" s="6" t="s">
-        <v>264</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B125" s="6" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B126" s="6" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B127" s="6" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5783,55 +5452,55 @@
   <sheetData>
     <row r="2" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5866,92 +5535,92 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -5963,668 +5632,97 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P165"/>
+  <dimension ref="C7:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="20" spans="1:16" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="P24" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="P30" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:3" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:3" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:3" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:2" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B115" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B118" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B120" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B122" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B131" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B133" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B134" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B136" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B137" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B144" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B145" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B146" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B147" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B148" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B149" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B155" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B156" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B158" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B160" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B161" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B162" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B164" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B165" t="s">
-        <v>209</v>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -6634,109 +5732,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:C37"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
-        <v>370</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -6744,20 +5742,20 @@
   <sheetData>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
-        <v>382</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
-        <v>374</v>
+        <v>264</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>385</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -6768,7 +5766,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -6777,7 +5775,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>371</v>
+        <v>261</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -6788,7 +5786,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>379</v>
+        <v>269</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -6796,7 +5794,7 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -6807,7 +5805,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>381</v>
+        <v>271</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -6815,7 +5813,7 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>373</v>
+        <v>263</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -6826,7 +5824,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>373</v>
+        <v>263</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -6834,7 +5832,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>375</v>
+        <v>265</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -6845,14 +5843,14 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>375</v>
+        <v>265</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>376</v>
+        <v>266</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -6863,7 +5861,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>376</v>
+        <v>266</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -6872,7 +5870,7 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>377</v>
+        <v>267</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -6883,7 +5881,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>380</v>
+        <v>270</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -6891,7 +5889,7 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>378</v>
+        <v>268</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -6902,55 +5900,55 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>389</v>
+        <v>279</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
     <row r="88" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A88" s="11" t="s">
-        <v>383</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
-        <v>384</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>388</v>
+        <v>278</v>
       </c>
       <c r="C92" s="10"/>
     </row>
     <row r="93" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B93" s="10"/>
       <c r="C93" s="10" t="s">
-        <v>386</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B94" s="10"/>
       <c r="C94" s="10" t="s">
-        <v>387</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="4" t="s">
-        <v>376</v>
+        <v>266</v>
       </c>
       <c r="C97" s="4"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" s="4"/>
       <c r="C98" s="4" t="s">
-        <v>380</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" s="4"/>
       <c r="C99" s="4" t="s">
-        <v>389</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/交易心得.xlsx
+++ b/交易心得.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="能力展示" sheetId="6" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="止盈策略" sheetId="5" r:id="rId5"/>
     <sheet name="悟道 真经" sheetId="7" r:id="rId6"/>
     <sheet name="交易策略图解" sheetId="8" r:id="rId7"/>
+    <sheet name="再思考" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="299">
   <si>
     <t>交易策略举例说明    红色（15均线），黄色（50均线），蓝色（200均线）</t>
   </si>
@@ -892,6 +893,63 @@
   </si>
   <si>
     <t>2、macd柱体 方向逆转</t>
+  </si>
+  <si>
+    <t>三点：</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>低频</t>
+  </si>
+  <si>
+    <t>纠错</t>
+  </si>
+  <si>
+    <t>模式例子</t>
+  </si>
+  <si>
+    <t>分三次加仓，告诉什么时候加仓</t>
+  </si>
+  <si>
+    <t>能力；</t>
+  </si>
+  <si>
+    <t>耐心 和 专业技巧</t>
+  </si>
+  <si>
+    <t>波段和价值两个投资不要同时存在。</t>
+  </si>
+  <si>
+    <t>只加仓，只加仓，只加仓，持仓</t>
+  </si>
+  <si>
+    <t>不是频繁的抢进抢出</t>
+  </si>
+  <si>
+    <t>成功率是确定的， 黑天鹅的情况例外</t>
+  </si>
+  <si>
+    <t>3、 信息的具体形式？</t>
+  </si>
+  <si>
+    <t>个人观点</t>
+  </si>
+  <si>
+    <t>发布的信息应该包括如下4点</t>
+  </si>
+  <si>
+    <t>1、具体方向， 买或者卖</t>
+  </si>
+  <si>
+    <t>2、成功率</t>
+  </si>
+  <si>
+    <t>3、交易量 （会提供用户一个公式，用户根据自己的资金量去算）</t>
+  </si>
+  <si>
+    <t>4、失败的情况下，如何止损</t>
   </si>
 </sst>
 </file>
@@ -5634,7 +5692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
@@ -5956,4 +6014,114 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:C35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>